--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES-MEUS.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES-MEUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652C97E4-0F83-4274-96ED-8A382D39480C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A69DD-A113-4FCA-9BBA-002DFDAC2889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="159">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -928,9 +928,9 @@
   </sheetPr>
   <dimension ref="A1:O214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65:XFD65"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2225,7 +2225,9 @@
       <c r="N42" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="O42" s="2"/>
+      <c r="O42" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -2381,7 +2383,9 @@
       <c r="N46" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="O46" s="2"/>
+      <c r="O46" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -2713,7 +2717,9 @@
       <c r="N57" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="O57" s="2"/>
+      <c r="O57" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
@@ -2808,7 +2814,9 @@
       <c r="N60" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="O60" s="2"/>
+      <c r="O60" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -2847,7 +2855,9 @@
       <c r="N61" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="O61" s="2"/>
+      <c r="O61" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES-MEUS.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES-MEUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A69DD-A113-4FCA-9BBA-002DFDAC2889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CAE5AA-F204-4A07-8545-C3CA6E0FFF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="159">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -930,7 +930,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomLeft" activeCell="K45" sqref="K45:N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,7 +2305,9 @@
       <c r="N44" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="O44" s="2"/>
+      <c r="O44" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -2332,16 +2334,16 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="N45" s="2" t="s">
+      <c r="K45" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="N45" s="7" t="s">
         <v>155</v>
       </c>
       <c r="O45" s="2"/>

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES-MEUS.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES-MEUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CAE5AA-F204-4A07-8545-C3CA6E0FFF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6263A773-5F99-4BD9-9B51-3D5E1EEBB338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="159">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -930,7 +930,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K45" sqref="K45:N45"/>
+      <selection pane="bottomLeft" activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1160,9 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2266,7 +2268,9 @@
       <c r="N43" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="O43" s="2"/>
+      <c r="O43" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES-MEUS.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES-MEUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6263A773-5F99-4BD9-9B51-3D5E1EEBB338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA409EFC-DCDC-45B5-93CA-1A6333BC4AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="160">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>AGO</t>
+  </si>
+  <si>
+    <t>SET</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -616,6 +619,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,11 +932,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O214"/>
+  <dimension ref="A1:P214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O44" sqref="O44"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +950,7 @@
     <col min="8" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -955,7 +961,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -974,7 +980,7 @@
       </c>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1014,8 +1020,11 @@
       <c r="O3" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1043,7 +1052,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1071,7 +1080,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1108,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1127,7 +1136,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1163,8 +1172,9 @@
       <c r="O8" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1200,8 +1210,9 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1229,7 +1240,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1257,7 +1268,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1285,7 +1296,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1317,8 +1328,9 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1346,7 +1358,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1386,8 +1398,9 @@
       <c r="O15" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1415,7 +1428,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1443,7 +1456,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1483,8 +1496,9 @@
       <c r="O18" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1512,7 +1526,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1540,7 +1554,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1568,7 +1582,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -1608,8 +1622,9 @@
       <c r="O22" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1645,8 +1660,9 @@
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1674,7 +1690,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1702,7 +1718,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1730,7 +1746,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1758,7 +1774,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1786,7 +1802,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1814,7 +1830,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1842,7 +1858,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1870,7 +1886,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -1898,7 +1914,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1938,8 +1954,9 @@
       <c r="O33" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>139</v>
       </c>
@@ -1967,8 +1984,9 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -2008,8 +2026,9 @@
       <c r="O35" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="5"/>
+    </row>
+    <row r="36" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -2037,7 +2056,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -2065,7 +2084,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -2093,7 +2112,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -2121,7 +2140,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -2161,8 +2180,9 @@
       <c r="O40" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="5"/>
+    </row>
+    <row r="41" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -2190,7 +2210,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -2230,8 +2250,9 @@
       <c r="O42" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P42" s="5"/>
+    </row>
+    <row r="43" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -2271,8 +2292,9 @@
       <c r="O43" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -2312,8 +2334,9 @@
       <c r="O44" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -2351,8 +2374,9 @@
         <v>155</v>
       </c>
       <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P45" s="5"/>
+    </row>
+    <row r="46" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -2392,8 +2416,9 @@
       <c r="O46" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P46" s="5"/>
+    </row>
+    <row r="47" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -2421,7 +2446,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -2449,7 +2474,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -2477,7 +2502,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -2505,7 +2530,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -2545,8 +2570,9 @@
       <c r="O51" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P51" s="5"/>
+    </row>
+    <row r="52" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -2574,7 +2600,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -2602,7 +2628,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -2630,7 +2656,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
@@ -2658,7 +2684,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -2686,7 +2712,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
@@ -2726,8 +2752,9 @@
       <c r="O57" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P57" s="5"/>
+    </row>
+    <row r="58" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
@@ -2755,7 +2782,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -2783,7 +2810,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -2823,8 +2850,9 @@
       <c r="O60" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P60" s="5"/>
+    </row>
+    <row r="61" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -2864,8 +2892,9 @@
       <c r="O61" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P61" s="5"/>
+    </row>
+    <row r="62" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -2893,7 +2922,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:15" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>136</v>
       </c>
@@ -2917,7 +2946,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:15" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>135</v>
       </c>

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES-MEUS.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES-MEUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA409EFC-DCDC-45B5-93CA-1A6333BC4AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C82C927-47C9-481B-99EA-752AA8E2586C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="160">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -591,7 +591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -619,9 +619,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -934,9 +931,9 @@
   </sheetPr>
   <dimension ref="A1:P214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1017,7 @@
       <c r="O3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="3" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1398,7 +1395,9 @@
       <c r="O15" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P15" s="5"/>
+      <c r="P15" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1496,7 +1495,9 @@
       <c r="O18" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P18" s="5"/>
+      <c r="P18" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="19" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1622,7 +1623,9 @@
       <c r="O22" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="5"/>
+      <c r="P22" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -2026,7 +2029,9 @@
       <c r="O35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P35" s="5"/>
+      <c r="P35" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="36" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -2180,7 +2185,9 @@
       <c r="O40" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P40" s="5"/>
+      <c r="P40" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="41" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -2292,7 +2299,9 @@
       <c r="O43" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="44" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -2416,7 +2425,9 @@
       <c r="O46" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P46" s="5"/>
+      <c r="P46" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="47" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -2570,7 +2581,9 @@
       <c r="O51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P51" s="5"/>
+      <c r="P51" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="52" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -2752,7 +2765,9 @@
       <c r="O57" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P57" s="5"/>
+      <c r="P57" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="58" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
@@ -2850,7 +2865,9 @@
       <c r="O60" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P60" s="5"/>
+      <c r="P60" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="61" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -2892,7 +2909,9 @@
       <c r="O61" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P61" s="5"/>
+      <c r="P61" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="62" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES-MEUS.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES-MEUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C82C927-47C9-481B-99EA-752AA8E2586C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06132E81-C230-4E4B-8C6C-6E953E543175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="162">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -506,6 +506,12 @@
   </si>
   <si>
     <t>SET</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>Ok</t>
   </si>
 </sst>
 </file>
@@ -591,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,6 +627,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,17 +942,17 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P214"/>
+  <dimension ref="A1:Q214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
+      <selection pane="bottomLeft" activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
@@ -947,7 +960,7 @@
     <col min="8" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -958,7 +971,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -977,7 +990,7 @@
       </c>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1020,8 +1033,11 @@
       <c r="P3" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1049,7 +1065,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1077,7 +1093,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1105,7 +1121,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1149,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1170,8 +1186,11 @@
         <v>155</v>
       </c>
       <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1208,8 +1227,11 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q9" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1237,7 +1259,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1265,7 +1287,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1293,7 +1315,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1326,8 +1348,9 @@
       <c r="N13" s="7"/>
       <c r="O13" s="2"/>
       <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1355,7 +1378,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1395,11 +1418,14 @@
       <c r="O15" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1427,7 +1453,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1455,7 +1481,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1495,11 +1521,14 @@
       <c r="O18" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1527,7 +1556,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1555,7 +1584,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1583,7 +1612,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -1623,11 +1652,14 @@
       <c r="O22" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1663,9 +1695,10 @@
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1693,7 +1726,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1721,7 +1754,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1749,7 +1782,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1777,7 +1810,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1805,7 +1838,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1833,7 +1866,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1861,7 +1894,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1889,7 +1922,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -1917,7 +1950,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1957,9 +1990,10 @@
       <c r="O33" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P33" s="5"/>
-    </row>
-    <row r="34" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>139</v>
       </c>
@@ -1987,9 +2021,10 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="5"/>
-    </row>
-    <row r="35" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -2029,11 +2064,14 @@
       <c r="O35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P35" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -2061,7 +2099,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -2089,7 +2127,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -2117,7 +2155,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -2145,7 +2183,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -2185,11 +2223,14 @@
       <c r="O40" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P40" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -2217,7 +2258,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -2257,9 +2298,10 @@
       <c r="O42" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P42" s="5"/>
-    </row>
-    <row r="43" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -2299,11 +2341,14 @@
       <c r="O43" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P43" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -2343,9 +2388,10 @@
       <c r="O44" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P44" s="5"/>
-    </row>
-    <row r="45" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -2383,9 +2429,10 @@
         <v>155</v>
       </c>
       <c r="O45" s="2"/>
-      <c r="P45" s="5"/>
-    </row>
-    <row r="46" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -2425,11 +2472,14 @@
       <c r="O46" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P46" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -2457,7 +2507,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -2485,7 +2535,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -2513,7 +2563,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -2541,7 +2591,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -2581,11 +2631,14 @@
       <c r="O51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P51" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P51" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -2613,7 +2666,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -2641,7 +2694,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -2669,7 +2722,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
@@ -2697,7 +2750,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -2725,7 +2778,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
@@ -2765,11 +2818,14 @@
       <c r="O57" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P57" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P57" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
@@ -2797,7 +2853,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -2825,7 +2881,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -2865,11 +2921,14 @@
       <c r="O60" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P60" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P60" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -2909,11 +2968,14 @@
       <c r="O61" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P61" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P61" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -2941,7 +3003,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:16" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>136</v>
       </c>
@@ -2965,7 +3027,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:16" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>135</v>
       </c>
@@ -2989,7 +3051,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>141</v>
       </c>
@@ -3017,7 +3079,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3030,8 +3092,9 @@
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
-    </row>
-    <row r="67" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3045,7 +3108,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3059,7 +3122,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3073,7 +3136,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3087,7 +3150,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3101,7 +3164,7 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -3115,28 +3178,28 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES-MEUS.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES-MEUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06132E81-C230-4E4B-8C6C-6E953E543175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530EB69B-8121-41A3-B323-0930B7343E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="163">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>Ok</t>
+  </si>
+  <si>
+    <t>NOV</t>
   </si>
 </sst>
 </file>
@@ -597,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -630,10 +633,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,11 +944,11 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q214"/>
+  <dimension ref="A1:R214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P33" sqref="P33"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +962,7 @@
     <col min="8" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -971,7 +973,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -990,7 +992,7 @@
       </c>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1033,11 +1035,14 @@
       <c r="P3" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1065,7 +1070,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1093,7 +1098,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1121,7 +1126,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1149,7 +1154,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1189,8 +1194,11 @@
       <c r="Q8" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1230,8 +1238,9 @@
       <c r="Q9" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="12"/>
+    </row>
+    <row r="10" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1259,7 +1268,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1287,7 +1296,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1315,7 +1324,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1349,8 +1358,9 @@
       <c r="O13" s="2"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="12"/>
+    </row>
+    <row r="14" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1378,7 +1388,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1421,11 +1431,14 @@
       <c r="P15" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q15" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1453,7 +1466,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1481,7 +1494,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1527,8 +1540,9 @@
       <c r="Q18" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="12"/>
+    </row>
+    <row r="19" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1556,7 +1570,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1584,7 +1598,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1612,7 +1626,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -1658,8 +1672,9 @@
       <c r="Q22" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="12"/>
+    </row>
+    <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1697,8 +1712,9 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="12"/>
+    </row>
+    <row r="24" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1726,7 +1742,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1754,7 +1770,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1782,7 +1798,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1810,7 +1826,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1838,7 +1854,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1866,7 +1882,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1894,7 +1910,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1922,7 +1938,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -1950,7 +1966,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1992,8 +2008,9 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R33" s="12"/>
+    </row>
+    <row r="34" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>139</v>
       </c>
@@ -2023,8 +2040,9 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="12"/>
+    </row>
+    <row r="35" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -2070,8 +2088,9 @@
       <c r="Q35" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R35" s="12"/>
+    </row>
+    <row r="36" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -2099,7 +2118,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -2127,7 +2146,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -2155,7 +2174,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -2183,7 +2202,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -2229,8 +2248,9 @@
       <c r="Q40" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R40" s="12"/>
+    </row>
+    <row r="41" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -2258,7 +2278,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -2300,8 +2320,9 @@
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="12"/>
+    </row>
+    <row r="43" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -2347,8 +2368,9 @@
       <c r="Q43" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R43" s="12"/>
+    </row>
+    <row r="44" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -2390,8 +2412,11 @@
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R44" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -2431,8 +2456,9 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-    </row>
-    <row r="46" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R45" s="12"/>
+    </row>
+    <row r="46" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -2478,8 +2504,9 @@
       <c r="Q46" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R46" s="12"/>
+    </row>
+    <row r="47" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -2507,7 +2534,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -2535,7 +2562,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -2563,7 +2590,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -2591,7 +2618,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -2637,8 +2664,9 @@
       <c r="Q51" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R51" s="12"/>
+    </row>
+    <row r="52" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -2666,7 +2694,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -2694,7 +2722,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -2722,7 +2750,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
@@ -2750,7 +2778,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -2778,7 +2806,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
@@ -2824,8 +2852,9 @@
       <c r="Q57" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R57" s="12"/>
+    </row>
+    <row r="58" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
@@ -2853,7 +2882,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -2881,7 +2910,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -2927,8 +2956,9 @@
       <c r="Q60" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R60" s="12"/>
+    </row>
+    <row r="61" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -2974,8 +3004,9 @@
       <c r="Q61" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R61" s="12"/>
+    </row>
+    <row r="62" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -3003,7 +3034,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:17" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>136</v>
       </c>
@@ -3027,7 +3058,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:17" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>135</v>
       </c>
@@ -3051,7 +3082,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:17" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>141</v>
       </c>
@@ -3079,7 +3110,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3092,9 +3123,8 @@
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3108,7 +3138,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3122,7 +3152,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3136,7 +3166,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3150,7 +3180,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3164,7 +3194,7 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -3178,28 +3208,28 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">

--- a/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES-MEUS.xlsx
+++ b/RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES-MEUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530EB69B-8121-41A3-B323-0930B7343E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05571922-BF83-4BE8-82ED-38B1E40A69F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="163">
   <si>
     <t>RELAÇÃO DE FISCAIS DE CONTRATOS VIGENTES</t>
   </si>
@@ -947,8 +947,8 @@
   <dimension ref="A1:R214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="A18:XFD18"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R66" sqref="R66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,7 +1540,9 @@
       <c r="Q18" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="R18" s="12"/>
+      <c r="R18" s="12" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="19" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1672,7 +1674,9 @@
       <c r="Q22" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="R22" s="12"/>
+      <c r="R22" s="12" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -2088,7 +2092,9 @@
       <c r="Q35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="R35" s="12"/>
+      <c r="R35" s="12" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="36" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -2248,7 +2254,9 @@
       <c r="Q40" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="R40" s="12"/>
+      <c r="R40" s="12" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="41" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -2368,7 +2376,9 @@
       <c r="Q43" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="R43" s="12"/>
+      <c r="R43" s="12" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="44" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -2504,7 +2514,9 @@
       <c r="Q46" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="R46" s="12"/>
+      <c r="R46" s="12" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="47" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -2664,7 +2676,9 @@
       <c r="Q51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="R51" s="12"/>
+      <c r="R51" s="12" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="52" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -2852,7 +2866,9 @@
       <c r="Q57" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="R57" s="12"/>
+      <c r="R57" s="12" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="58" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
@@ -2956,7 +2972,9 @@
       <c r="Q60" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="R60" s="12"/>
+      <c r="R60" s="12" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="61" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -3004,7 +3022,9 @@
       <c r="Q61" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="R61" s="12"/>
+      <c r="R61" s="12" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="62" spans="1:18" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
